--- a/static/Bill/gene.xlsx
+++ b/static/Bill/gene.xlsx
@@ -470,12 +470,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>14</t>
         </is>
       </c>
     </row>
